--- a/Statystyki_2018/Template/oglc3.xlsx
+++ b/Statystyki_2018/Template/oglc3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\priv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423786DD-0ACB-4E83-AFEA-8AE1E657EF55}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF52EECE-B407-41F8-90E3-802296292A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="8" xr2:uid="{C54BD6F6-AB6C-44A1-9D20-AA4BA54B09ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C54BD6F6-AB6C-44A1-9D20-AA4BA54B09ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="115">
   <si>
     <t>okres statystyczny</t>
   </si>
@@ -382,12 +384,6 @@
   </si>
   <si>
     <t>Rok</t>
-  </si>
-  <si>
-    <t>rok</t>
-  </si>
-  <si>
-    <t>Prezes</t>
   </si>
   <si>
     <t>Uchylono</t>
@@ -1198,7 +1194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1429,15 +1425,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1447,6 +1434,19 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1459,20 +1459,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1486,7 +1480,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1501,9 +1495,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1540,10 +1531,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1860,67 +1847,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73DEC50-7577-4550-A319-A9596C74C13B}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="97" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="99" t="s">
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-    </row>
-    <row r="3" spans="1:14" ht="39.75" thickBot="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="99"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+    </row>
+    <row r="3" spans="1:14" ht="48.6" thickBot="1">
+      <c r="A3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1949,8 +1936,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="94" t="s">
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="A4" s="96" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1971,8 +1958,8 @@
       <c r="M4" s="7"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="94"/>
+    <row r="5" spans="1:14" ht="15" thickBot="1">
+      <c r="A5" s="96"/>
       <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
@@ -1992,8 +1979,8 @@
       <c r="M5" s="14"/>
       <c r="N5" s="15"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A6" s="94"/>
+    <row r="6" spans="1:14" ht="15" thickBot="1">
+      <c r="A6" s="96"/>
       <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
@@ -2013,8 +2000,8 @@
       <c r="M6" s="14"/>
       <c r="N6" s="15"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A7" s="94"/>
+    <row r="7" spans="1:14" ht="15" thickBot="1">
+      <c r="A7" s="96"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
@@ -2050,81 +2037,84 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E340129-A5E1-49DE-A92E-ACBD772EDF61}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="10" width="18.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="80"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="81"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A4" s="122" t="s">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="A4" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="122" t="s">
+      <c r="C4" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="122" t="s">
+      <c r="E4" s="121" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="122" t="s">
+      <c r="F4" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="121" t="s">
         <v>96</v>
       </c>
       <c r="H4" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="122" t="s">
+      <c r="I4" s="121" t="s">
         <v>98</v>
       </c>
-      <c r="J4" s="122" t="s">
+      <c r="J4" s="121" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A5" s="122"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
+      <c r="A5" s="121"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1">
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="84" t="s">
         <v>101</v>
       </c>
@@ -2137,89 +2127,6 @@
       <c r="H6" s="85"/>
       <c r="I6" s="85"/>
       <c r="J6" s="85"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A7" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="81"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="81"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A10" s="80"/>
-    </row>
-    <row r="11" spans="1:10" ht="60.75" thickBot="1">
-      <c r="A11" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" s="87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A12" s="84" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A13" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2246,32 +2153,32 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="90" t="s">
+      <c r="B2" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="90" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="87" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2288,41 +2195,41 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A2" s="89" t="s">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
+      <c r="A2" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="90" t="s">
+      <c r="B2" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="90" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="87" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="89"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1">
+      <c r="A3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2334,48 +2241,48 @@
   <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="123" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="91"/>
+      <c r="A2" s="122" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="88"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="F3" s="91"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="D4" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="91"/>
+      <c r="F4" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2390,55 +2297,55 @@
   <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="124" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
+      <c r="A2" s="123" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="E4" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="90" t="s">
         <v>111</v>
-      </c>
-      <c r="D4" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="93" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2457,13 +2364,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1"/>
+    <row r="2" spans="1:12" ht="15" thickBot="1">
       <c r="A2" s="101" t="s">
         <v>17</v>
       </c>
@@ -2481,7 +2388,7 @@
       <c r="K2" s="101"/>
       <c r="L2" s="101"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1">
+    <row r="3" spans="1:12" ht="15" thickBot="1">
       <c r="A3" s="101"/>
       <c r="B3" s="101" t="s">
         <v>18</v>
@@ -2501,7 +2408,7 @@
       <c r="K3" s="101"/>
       <c r="L3" s="101"/>
     </row>
-    <row r="4" spans="1:12" ht="30" thickBot="1">
+    <row r="4" spans="1:12" ht="29.4" thickBot="1">
       <c r="A4" s="101"/>
       <c r="B4" s="101"/>
       <c r="C4" s="101"/>
@@ -2531,14 +2438,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+    <row r="5" spans="1:12" ht="15" thickBot="1">
       <c r="A5" s="24">
         <v>0</v>
       </c>
-      <c r="B5" s="102">
+      <c r="B5" s="100">
         <v>1</v>
       </c>
-      <c r="C5" s="102"/>
+      <c r="C5" s="100"/>
       <c r="D5" s="23">
         <v>2</v>
       </c>
@@ -2588,12 +2495,13 @@
       <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" s="103"/>
       <c r="B1" s="103"/>
       <c r="C1" s="103"/>
@@ -2601,7 +2509,7 @@
       <c r="E1" s="103"/>
       <c r="F1" s="103"/>
     </row>
-    <row r="2" spans="1:6" ht="43.5" thickBot="1">
+    <row r="2" spans="1:6" ht="42" thickBot="1">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -2621,7 +2529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="104"/>
       <c r="B3" s="105" t="s">
         <v>27</v>
@@ -2633,7 +2541,7 @@
       <c r="E3" s="31"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+    <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="104"/>
       <c r="B4" s="105"/>
       <c r="C4" s="33" t="s">
@@ -2643,7 +2551,7 @@
       <c r="E4" s="34"/>
       <c r="F4" s="35"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+    <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="104"/>
       <c r="B5" s="105"/>
       <c r="C5" s="33" t="s">
@@ -2653,7 +2561,7 @@
       <c r="E5" s="34"/>
       <c r="F5" s="35"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+    <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="104"/>
       <c r="B6" s="36" t="s">
         <v>29</v>
@@ -2665,7 +2573,7 @@
       <c r="E6" s="34"/>
       <c r="F6" s="35"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+    <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="104"/>
       <c r="B7" s="36" t="s">
         <v>30</v>
@@ -2677,7 +2585,7 @@
       <c r="E7" s="34"/>
       <c r="F7" s="35"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+    <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="104"/>
       <c r="B8" s="36" t="s">
         <v>31</v>
@@ -2689,7 +2597,7 @@
       <c r="E8" s="34"/>
       <c r="F8" s="35"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+    <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="104"/>
       <c r="B9" s="106" t="s">
         <v>32</v>
@@ -2701,7 +2609,7 @@
       <c r="E9" s="34"/>
       <c r="F9" s="35"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+    <row r="10" spans="1:6" ht="15" thickBot="1">
       <c r="A10" s="104"/>
       <c r="B10" s="106"/>
       <c r="C10" s="33" t="s">
@@ -2711,7 +2619,7 @@
       <c r="E10" s="34"/>
       <c r="F10" s="35"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+    <row r="11" spans="1:6" ht="15" thickBot="1">
       <c r="A11" s="104"/>
       <c r="B11" s="106"/>
       <c r="C11" s="33" t="s">
@@ -2721,7 +2629,7 @@
       <c r="E11" s="34"/>
       <c r="F11" s="35"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+    <row r="12" spans="1:6" ht="15" thickBot="1">
       <c r="A12" s="104"/>
       <c r="B12" s="36" t="s">
         <v>33</v>
@@ -2733,7 +2641,7 @@
       <c r="E12" s="34"/>
       <c r="F12" s="35"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+    <row r="13" spans="1:6" ht="15" thickBot="1">
       <c r="A13" s="104"/>
       <c r="B13" s="36" t="s">
         <v>34</v>
@@ -2745,7 +2653,7 @@
       <c r="E13" s="34"/>
       <c r="F13" s="35"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
+    <row r="14" spans="1:6" ht="15" thickBot="1">
       <c r="A14" s="104"/>
       <c r="B14" s="106" t="s">
         <v>35</v>
@@ -2757,7 +2665,7 @@
       <c r="E14" s="34"/>
       <c r="F14" s="35"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+    <row r="15" spans="1:6" ht="15" thickBot="1">
       <c r="A15" s="104"/>
       <c r="B15" s="106"/>
       <c r="C15" s="37" t="s">
@@ -2767,7 +2675,7 @@
       <c r="E15" s="34"/>
       <c r="F15" s="35"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+    <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" s="104"/>
       <c r="B16" s="106"/>
       <c r="C16" s="37" t="s">
@@ -2777,7 +2685,7 @@
       <c r="E16" s="34"/>
       <c r="F16" s="35"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1">
+    <row r="17" spans="1:6" ht="15" thickBot="1">
       <c r="A17" s="104"/>
       <c r="B17" s="38" t="s">
         <v>37</v>
@@ -2789,11 +2697,11 @@
       <c r="E17" s="40"/>
       <c r="F17" s="41"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A18" s="107" t="s">
+    <row r="18" spans="1:6" ht="15" thickBot="1">
+      <c r="A18" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="107"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="42" t="s">
         <v>39</v>
       </c>
@@ -2822,18 +2730,18 @@
       <selection activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="108"/>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -3034,7 +2942,7 @@
       <c r="F16" s="57"/>
       <c r="G16" s="59"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1">
+    <row r="17" spans="1:7" ht="15" thickBot="1">
       <c r="A17" s="109"/>
       <c r="B17" s="61" t="s">
         <v>37</v>
@@ -3047,11 +2955,11 @@
       <c r="F17" s="64"/>
       <c r="G17" s="65"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A18" s="112" t="s">
+    <row r="18" spans="1:7" ht="15" thickBot="1">
+      <c r="A18" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="112"/>
+      <c r="B18" s="107"/>
       <c r="C18" s="66" t="s">
         <v>39</v>
       </c>
@@ -3086,131 +2994,131 @@
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
+      <c r="A1" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="113" t="s">
+      <c r="B1" s="112" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="112" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="57.75" customHeight="1" thickBot="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A3" s="113" t="s">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1">
+      <c r="A3" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A4" s="113"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="113" t="s">
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1">
+      <c r="A4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1">
+      <c r="A5" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A7" s="113" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1">
+      <c r="A6" s="112"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1">
+      <c r="A7" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A8" s="113"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A9" s="113" t="s">
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1">
+      <c r="A8" s="112"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1">
+      <c r="A9" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A10" s="113"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A11" s="113" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1">
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1">
+      <c r="A11" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A13" s="113" t="s">
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1">
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1">
+      <c r="A13" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A15" s="113" t="s">
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1">
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1">
+      <c r="A15" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A16" s="113"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1">
+      <c r="A16" s="112"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -3259,93 +3167,93 @@
       <selection sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:8" ht="15.6">
+      <c r="A1" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6">
       <c r="A2" s="71"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" thickBot="1">
+    <row r="3" spans="1:8" ht="16.2" thickBot="1">
       <c r="A3" s="71"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="115" t="s">
+    <row r="4" spans="1:8" ht="15" thickBot="1">
+      <c r="A4" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="115" t="s">
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="114" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A5" s="115"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="115"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A6" s="115"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="118" t="s">
+    <row r="5" spans="1:8" ht="15" thickBot="1">
+      <c r="A5" s="114"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="114"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1">
+      <c r="A6" s="114"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="115"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A7" s="115"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115" t="s">
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="114"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1">
+      <c r="A7" s="114"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="115"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A8" s="115"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="114"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1">
+      <c r="A8" s="114"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
       <c r="F8" s="72"/>
-      <c r="G8" s="119" t="s">
+      <c r="G8" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="115"/>
-    </row>
-    <row r="9" spans="1:8" ht="24.75" thickBot="1">
-      <c r="A9" s="115"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
+      <c r="H8" s="114"/>
+    </row>
+    <row r="9" spans="1:8" ht="23.4" thickBot="1">
+      <c r="A9" s="114"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
       <c r="D9" s="73" t="s">
         <v>63</v>
       </c>
@@ -3355,10 +3263,10 @@
       <c r="F9" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="119"/>
-      <c r="H9" s="115"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+      <c r="G9" s="118"/>
+      <c r="H9" s="114"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1">
       <c r="A10" s="74"/>
       <c r="B10" s="75"/>
       <c r="C10" s="75"/>
@@ -3368,7 +3276,7 @@
       <c r="G10" s="75"/>
       <c r="H10" s="75"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+    <row r="11" spans="1:8" ht="15" thickBot="1">
       <c r="A11" s="74"/>
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
@@ -3378,7 +3286,7 @@
       <c r="G11" s="75"/>
       <c r="H11" s="75"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1">
+    <row r="12" spans="1:8" ht="15" thickBot="1">
       <c r="A12" s="74"/>
       <c r="B12" s="75"/>
       <c r="C12" s="75"/>
@@ -3388,7 +3296,7 @@
       <c r="G12" s="75"/>
       <c r="H12" s="75"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+    <row r="13" spans="1:8" ht="15" thickBot="1">
       <c r="A13" s="74"/>
       <c r="B13" s="75"/>
       <c r="C13" s="75"/>
@@ -3398,7 +3306,7 @@
       <c r="G13" s="75"/>
       <c r="H13" s="75"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="15" thickBot="1">
       <c r="A14" s="74"/>
       <c r="B14" s="75"/>
       <c r="C14" s="75"/>
@@ -3408,7 +3316,7 @@
       <c r="G14" s="75"/>
       <c r="H14" s="75"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1">
+    <row r="15" spans="1:8" ht="15" thickBot="1">
       <c r="A15" s="74"/>
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
@@ -3440,12 +3348,15 @@
   <dimension ref="A2:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1">
+    <row r="2" spans="1:14" ht="15" thickBot="1">
       <c r="A2" s="76" t="s">
         <v>66</v>
       </c>
@@ -3454,7 +3365,7 @@
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1">
+    <row r="3" spans="1:14" ht="15" thickBot="1">
       <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
@@ -3511,30 +3422,30 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A2" s="120" t="s">
+    <row r="2" spans="1:14" ht="15" thickBot="1">
+      <c r="A2" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickBot="1">
       <c r="A3" s="14" t="s">
         <v>80</v>
       </c>
@@ -3590,38 +3501,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FC3C40-AE33-4DCA-9D6D-F06DD93B7CBB}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="126" customFormat="1">
-      <c r="A1" s="125"/>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-    </row>
-    <row r="2" spans="1:9" s="126" customFormat="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-    </row>
-    <row r="3" spans="1:9" ht="43.5">
+    <row r="1" spans="1:9" s="92" customFormat="1">
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+    </row>
+    <row r="2" spans="1:9" s="92" customFormat="1">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+    </row>
+    <row r="3" spans="1:9" ht="42">
       <c r="A3" s="79" t="s">
         <v>81</v>
       </c>
